--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H2">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>1069.270576910912</v>
+        <v>1219.42098469125</v>
       </c>
       <c r="R2">
-        <v>9623.435192198211</v>
+        <v>10974.78886222125</v>
       </c>
       <c r="S2">
-        <v>0.4059612637491041</v>
+        <v>0.4263451672944319</v>
       </c>
       <c r="T2">
-        <v>0.405961263749104</v>
+        <v>0.4263451672944319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H3">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>196.4558667089529</v>
+        <v>196.3171367048711</v>
       </c>
       <c r="R3">
-        <v>1768.102800380576</v>
+        <v>1766.85423034384</v>
       </c>
       <c r="S3">
-        <v>0.07458680117290538</v>
+        <v>0.06863820086907409</v>
       </c>
       <c r="T3">
-        <v>0.07458680117290538</v>
+        <v>0.06863820086907409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H4">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>217.8749584370822</v>
+        <v>288.0049879030745</v>
       </c>
       <c r="R4">
-        <v>1960.87462593374</v>
+        <v>2592.04489112767</v>
       </c>
       <c r="S4">
-        <v>0.08271881353167604</v>
+        <v>0.1006949497266989</v>
       </c>
       <c r="T4">
-        <v>0.08271881353167602</v>
+        <v>0.1006949497266989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H5">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>273.0485016699953</v>
+        <v>361.1049416271856</v>
       </c>
       <c r="R5">
-        <v>2457.436515029958</v>
+        <v>3249.94447464467</v>
       </c>
       <c r="S5">
-        <v>0.1036661039743414</v>
+        <v>0.1262528271053733</v>
       </c>
       <c r="T5">
-        <v>0.1036661039743414</v>
+        <v>0.1262528271053733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H6">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>233.2670797294419</v>
+        <v>186.7918817514933</v>
       </c>
       <c r="R6">
-        <v>2099.403717564978</v>
+        <v>1681.12693576344</v>
       </c>
       <c r="S6">
-        <v>0.08856261504137236</v>
+        <v>0.06530789372527157</v>
       </c>
       <c r="T6">
-        <v>0.08856261504137235</v>
+        <v>0.06530789372527157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J7">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>49.51973299906577</v>
+        <v>56.5133605965</v>
       </c>
       <c r="R7">
-        <v>445.677596991592</v>
+        <v>508.6202453685</v>
       </c>
       <c r="S7">
-        <v>0.01880075429260958</v>
+        <v>0.01975872031100552</v>
       </c>
       <c r="T7">
-        <v>0.01880075429260957</v>
+        <v>0.01975872031100552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J8">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>9.098204210979555</v>
@@ -948,10 +948,10 @@
         <v>81.883837898816</v>
       </c>
       <c r="S8">
-        <v>0.00345424119871243</v>
+        <v>0.003180997739997985</v>
       </c>
       <c r="T8">
-        <v>0.003454241198712429</v>
+        <v>0.003180997739997985</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J9">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>10.09015865764889</v>
+        <v>13.34742467063422</v>
       </c>
       <c r="R9">
-        <v>90.81142791884</v>
+        <v>120.126822035708</v>
       </c>
       <c r="S9">
-        <v>0.003830848476090995</v>
+        <v>0.004666649234015112</v>
       </c>
       <c r="T9">
-        <v>0.003830848476090993</v>
+        <v>0.004666649234015112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J10">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>12.64533897262533</v>
+        <v>16.73519976738978</v>
       </c>
       <c r="R10">
-        <v>113.808050753628</v>
+        <v>150.616797906508</v>
       </c>
       <c r="S10">
-        <v>0.004800953005452879</v>
+        <v>0.005851114286293887</v>
       </c>
       <c r="T10">
-        <v>0.004800953005452877</v>
+        <v>0.005851114286293887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J11">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>10.802993886772</v>
+        <v>8.656761776650667</v>
       </c>
       <c r="R11">
-        <v>97.22694498094799</v>
+        <v>77.910855989856</v>
       </c>
       <c r="S11">
-        <v>0.004101484830170538</v>
+        <v>0.003026656580646471</v>
       </c>
       <c r="T11">
-        <v>0.004101484830170536</v>
+        <v>0.003026656580646471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H12">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I12">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J12">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>296.0606964776456</v>
+        <v>266.67674732925</v>
       </c>
       <c r="R12">
-        <v>2664.54626829881</v>
+        <v>2400.09072596325</v>
       </c>
       <c r="S12">
-        <v>0.1124029568228909</v>
+        <v>0.09323797431812383</v>
       </c>
       <c r="T12">
-        <v>0.1124029568228909</v>
+        <v>0.09323797431812382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H13">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I13">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J13">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>54.39489496943111</v>
+        <v>42.93284773568356</v>
       </c>
       <c r="R13">
-        <v>489.55405472488</v>
+        <v>386.395629621152</v>
       </c>
       <c r="S13">
-        <v>0.02065166738907644</v>
+        <v>0.01501057664259476</v>
       </c>
       <c r="T13">
-        <v>0.02065166738907643</v>
+        <v>0.01501057664259476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H14">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I14">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J14">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>60.32543430332778</v>
+        <v>62.98418212643624</v>
       </c>
       <c r="R14">
-        <v>542.92890872995</v>
+        <v>566.8576391379261</v>
       </c>
       <c r="S14">
-        <v>0.02290326702595961</v>
+        <v>0.02202110838071024</v>
       </c>
       <c r="T14">
-        <v>0.0229032670259596</v>
+        <v>0.02202110838071024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H15">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I15">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J15">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>75.60193960460168</v>
+        <v>78.97050525339179</v>
       </c>
       <c r="R15">
-        <v>680.417456441415</v>
+        <v>710.734547280526</v>
       </c>
       <c r="S15">
-        <v>0.02870317355260458</v>
+        <v>0.0276103935361649</v>
       </c>
       <c r="T15">
-        <v>0.02870317355260456</v>
+        <v>0.0276103935361649</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H16">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I16">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J16">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>64.58722009308499</v>
+        <v>40.84975744911467</v>
       </c>
       <c r="R16">
-        <v>581.2849808377649</v>
+        <v>367.647817042032</v>
       </c>
       <c r="S16">
-        <v>0.02452130457641393</v>
+        <v>0.01428226747958533</v>
       </c>
       <c r="T16">
-        <v>0.02452130457641392</v>
+        <v>0.01428226747958533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H17">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I17">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J17">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>0.472366101284</v>
+        <v>6.3733005765</v>
       </c>
       <c r="R17">
-        <v>4.251294911556</v>
+        <v>57.35970518849999</v>
       </c>
       <c r="S17">
-        <v>0.0001793393960053451</v>
+        <v>0.00222829189805486</v>
       </c>
       <c r="T17">
-        <v>0.0001793393960053451</v>
+        <v>0.00222829189805486</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H18">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I18">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J18">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>0.086787286432</v>
+        <v>1.026050999815111</v>
       </c>
       <c r="R18">
-        <v>0.781085577888</v>
+        <v>9.234458998335999</v>
       </c>
       <c r="S18">
-        <v>3.294982321413453E-05</v>
+        <v>0.0003587373767227343</v>
       </c>
       <c r="T18">
-        <v>3.294982321413452E-05</v>
+        <v>0.0003587373767227343</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H19">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I19">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J19">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>0.09624948718000001</v>
+        <v>1.505257313496444</v>
       </c>
       <c r="R19">
-        <v>0.86624538462</v>
+        <v>13.547315821468</v>
       </c>
       <c r="S19">
-        <v>3.654226001773867E-05</v>
+        <v>0.0005262818905042038</v>
       </c>
       <c r="T19">
-        <v>3.654226001773866E-05</v>
+        <v>0.0005262818905042038</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H20">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I20">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J20">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>0.120623216406</v>
+        <v>1.887314029807555</v>
       </c>
       <c r="R20">
-        <v>1.085608947654</v>
+        <v>16.985826268268</v>
       </c>
       <c r="S20">
-        <v>4.579603556578673E-05</v>
+        <v>0.0006598600695551934</v>
       </c>
       <c r="T20">
-        <v>4.57960355657867E-05</v>
+        <v>0.0006598600695551934</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H21">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I21">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J21">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>0.103049184546</v>
+        <v>0.9762672797973332</v>
       </c>
       <c r="R21">
-        <v>0.9274426609139999</v>
+        <v>8.786405518176</v>
       </c>
       <c r="S21">
-        <v>3.912384581596344E-05</v>
+        <v>0.0003413315351749995</v>
       </c>
       <c r="T21">
-        <v>3.912384581596342E-05</v>
+        <v>0.0003413315351749995</v>
       </c>
     </row>
   </sheetData>
